--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>765890.3152845036</v>
+        <v>773022.4371738576</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443466</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -656,31 +656,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -738,28 +738,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>33.57505181659868</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>112.6175240304929</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>205.5178444382804</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,28 +975,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>120.4324765878912</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>85.80043703055078</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V8" t="n">
         <v>205.5178444382804</v>
@@ -1196,7 +1196,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>108.0109996132921</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>47.29627918133471</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1412,31 +1412,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>13.74034240511227</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>197.4076324647072</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1616,55 +1616,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>119.3034809802377</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,58 +1853,58 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>51.87748497259537</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>84.14750936819277</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>88.91888512441756</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2245,61 +2245,61 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,14 +2318,14 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2336,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,19 +2445,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>31.42349649226721</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>62.30512642017684</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,67 +2561,67 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>70.99925552719927</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,31 +2834,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="30">
@@ -2871,22 +2871,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>111.1939927714464</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>123.8814522403791</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3026,20 +3026,20 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
@@ -3071,19 +3071,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3108,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>118.5628686044508</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>118.3376725010039</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,73 +3263,73 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>200.3360962888297</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>83.3927757125424</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>26.80306451525648</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,13 +3545,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>202.2946864288972</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>89.24443026103606</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>13.11818635818213</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3746,17 +3746,17 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
+      <c r="H41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G41" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3782,16 +3782,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>81.44781579947814</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3940,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>21.16030022554292</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.714921000282511</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>81.13095251577728</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>619.8847831118876</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C3" t="n">
-        <v>619.8847831118876</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D3" t="n">
-        <v>619.8847831118876</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4437,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>619.8847831118876</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>619.8847831118876</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X3" t="n">
-        <v>619.8847831118876</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y3" t="n">
-        <v>619.8847831118876</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.2380658808762</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C5" t="n">
         <v>224.0352098159517</v>
@@ -4586,25 +4586,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
         <v>639.2227743377304</v>
@@ -4623,43 +4623,43 @@
         <v>446.2622584721643</v>
       </c>
       <c r="C6" t="n">
-        <v>446.2622584721643</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D6" t="n">
-        <v>446.2622584721643</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E6" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4686,7 +4686,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y6" t="n">
         <v>614.4775954922324</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
         <v>16.44142755506243</v>
@@ -4814,10 +4814,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4835,19 +4835,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V8" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>505.3755756808262</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C9" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4896,10 +4896,10 @@
         <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4920,13 +4920,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>774.2973583780361</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.4775954922324</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="10">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5042,16 +5042,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5060,31 +5060,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="W11" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="X11" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="W11" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="X11" t="n">
-        <v>224.0352098159517</v>
-      </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>415.0759465379826</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C12" t="n">
-        <v>415.0759465379826</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>415.0759465379826</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>415.0759465379826</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>268.5413885648676</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>129.8105631474831</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5127,13 +5127,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
         <v>822.0713777531216</v>
@@ -5154,16 +5154,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>808.192244010584</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>600.5984617496947</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="Y12" t="n">
-        <v>415.0759465379826</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="13">
@@ -5176,28 +5176,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5288,40 +5288,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5370,37 +5370,37 @@
         <v>752.1869855945927</v>
       </c>
       <c r="O15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D18" t="n">
         <v>668.2068788942177</v>
@@ -5595,10 +5595,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
         <v>304.2053859195205</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>911.6556555383177</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5695,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5783,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>104.2786273205085</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,13 +5835,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5859,22 +5859,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>353.3011080883284</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W21" t="n">
-        <v>109.8523314442283</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X21" t="n">
-        <v>20.03527576299844</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.03527576299844</v>
+        <v>104.2786273205085</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>463.7839815061678</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C24" t="n">
-        <v>463.7839815061678</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D24" t="n">
-        <v>463.7839815061678</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6069,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>932.3162499628916</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>730.1296553216575</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="W24" t="n">
-        <v>463.7839815061678</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="X24" t="n">
-        <v>463.7839815061678</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="Y24" t="n">
-        <v>463.7839815061678</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6306,10 +6306,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M27" t="n">
         <v>304.2053859195205</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>588.4532163200711</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>353.3011080883284</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>281.5846883638847</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>281.5846883638847</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>689.4702815141908</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6549,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>689.4702815141908</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6607,7 +6607,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G31" t="n">
         <v>829.5248650203655</v>
@@ -6677,13 +6677,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>313.4946457291688</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C33" t="n">
-        <v>139.0416164480418</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6783,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>569.9372789879242</v>
       </c>
       <c r="U33" t="n">
-        <v>689.4702815141908</v>
+        <v>569.9372789879242</v>
       </c>
       <c r="V33" t="n">
-        <v>689.4702815141908</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="W33" t="n">
-        <v>689.4702815141908</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="X33" t="n">
-        <v>689.4702815141908</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="Y33" t="n">
-        <v>481.7099827492369</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>761.6974622895962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>761.6974622895962</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>158.0119685275972</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C36" t="n">
-        <v>158.0119685275972</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>778.6524990811558</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>778.6524990811558</v>
       </c>
       <c r="U36" t="n">
-        <v>561.379413779408</v>
+        <v>550.428880817545</v>
       </c>
       <c r="V36" t="n">
-        <v>326.2273055476653</v>
+        <v>550.428880817545</v>
       </c>
       <c r="W36" t="n">
-        <v>326.2273055476653</v>
+        <v>550.428880817545</v>
       </c>
       <c r="X36" t="n">
-        <v>326.2273055476653</v>
+        <v>550.428880817545</v>
       </c>
       <c r="Y36" t="n">
-        <v>326.2273055476653</v>
+        <v>342.668582052591</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
         <v>829.5248650203655</v>
@@ -7120,25 +7120,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>499.5061853699102</v>
+        <v>284.6341941966871</v>
       </c>
       <c r="C39" t="n">
-        <v>325.0531560887832</v>
+        <v>110.1811649155601</v>
       </c>
       <c r="D39" t="n">
-        <v>325.0531560887832</v>
+        <v>110.1811649155601</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>950.8064622195432</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W39" t="n">
-        <v>707.357685575443</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X39" t="n">
-        <v>499.5061853699102</v>
+        <v>452.8495312167552</v>
       </c>
       <c r="Y39" t="n">
-        <v>499.5061853699102</v>
+        <v>452.8495312167552</v>
       </c>
     </row>
     <row r="40">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F41" t="n">
-        <v>189.1984156022267</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7412,49 +7412,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X41" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y41" t="n">
-        <v>604.3859801240053</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7497,16 +7497,16 @@
         <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7530,10 +7530,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7652,10 +7652,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7670,28 +7670,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y44" t="n">
-        <v>245.4092504478133</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>132.2969392348976</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>132.2969392348976</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7749,28 +7749,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957869</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957869</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>566.7035761171468</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.2969392348976</v>
+        <v>359.1097938562575</v>
       </c>
     </row>
     <row r="46">
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7988,13 +7988,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O2" t="n">
-        <v>360.3696370111358</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P6" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8462,13 +8462,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8544,13 +8544,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>213.1865395540696</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,19 +8690,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8775,16 +8775,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8936,13 +8936,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>401.0105146732905</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9018,13 +9018,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>213.1865395540696</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.0431814381598</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10431,7 +10431,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,10 +10440,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,10 +10911,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,10 +11072,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,19 +11145,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,13 +11300,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,31 +22544,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>170.4039740891423</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22626,28 +22626,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>139.1334471717171</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>45.02755642490803</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22677,19 +22677,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,10 +22744,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>71.32518834398851</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
         <v>149.1651971824026</v>
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22844,10 +22844,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>178.2115505507205</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,28 +22863,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>52.27602240042458</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>59.2687753628331</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22926,10 +22926,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,7 +23021,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23075,7 +23075,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V8" t="n">
         <v>122.2344140318545</v>
@@ -23084,7 +23084,7 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>188.7109832972316</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,10 +23097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>58.52218403657521</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23109,16 +23109,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23160,10 +23160,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>204.3987039795849</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23261,10 +23261,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23300,31 +23300,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23346,19 +23346,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,16 +23394,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>219.060244744313</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.275063312597155</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>156.7228403034423</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>106.6379011007371</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,22 +23777,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,10 +23811,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23859,7 +23859,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>119.8056861312425</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23871,7 +23871,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24023,19 +24023,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24066,10 +24066,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>5.249123483222306</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,7 +24099,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,10 +24111,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>116.8541000790599</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,13 +24206,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24224,10 +24224,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>2.212053182593479</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24257,7 +24257,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,19 +24285,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24333,19 +24333,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>140.2596746115706</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>189.3898567407428</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,13 +24449,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,7 +24525,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24537,7 +24537,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24570,22 +24570,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>180.6957276337203</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,10 +24692,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,31 +24722,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>246.9027416247241</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="30">
@@ -24759,22 +24759,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>36.25107279319238</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>127.8135309205405</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24847,10 +24847,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,19 +24959,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,16 +24996,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>28.88219696018795</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,13 +25047,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>81.82705619381767</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25151,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25175,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>169.3950043896394</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25245,7 +25245,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>88.29039539129542</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>199.1383175657184</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25360,7 +25360,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25391,7 +25391,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25409,7 +25409,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,13 +25433,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.725383157348119</v>
+        <v>116.0654025766999</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25476,10 +25476,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>68.40065019436489</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>219.6824007912431</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25634,16 +25634,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>244.2733193484424</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,16 +25670,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25688,7 +25688,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>85.0853678503892</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25770,7 +25770,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>158.4767060221428</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25828,10 +25828,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>361.5735414379376</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25956,16 +25956,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.6285961629281</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -25998,7 +25998,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>144.8104295651975</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>426200.7037895467</v>
+        <v>426200.7037895466</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>426200.7037895466</v>
+        <v>426200.7037895467</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426200.7037895467</v>
+        <v>426200.7037895466</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426200.7037895467</v>
+        <v>426200.7037895466</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448931.5405599569</v>
+        <v>448931.5405599568</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448931.5405599568</v>
+        <v>448931.5405599569</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448931.5405599569</v>
+        <v>448931.5405599568</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448931.5405599568</v>
+        <v>448931.5405599569</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="C2" t="n">
         <v>165645.5239266781</v>
@@ -26329,7 +26329,7 @@
         <v>174468.706157899</v>
       </c>
       <c r="H2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="I2" t="n">
         <v>174468.7061578989</v>
@@ -26341,7 +26341,7 @@
         <v>174468.7061578989</v>
       </c>
       <c r="L2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="M2" t="n">
         <v>174468.7061578989</v>
@@ -26350,7 +26350,7 @@
         <v>174468.706157899</v>
       </c>
       <c r="O2" t="n">
-        <v>165645.5239266782</v>
+        <v>165645.5239266781</v>
       </c>
       <c r="P2" t="n">
         <v>165645.5239266781</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="C4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="D4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="E4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="F4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991548</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="P4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9967.533002520293</v>
+        <v>10800.38955024382</v>
       </c>
       <c r="C6" t="n">
-        <v>78841.28958421017</v>
+        <v>79674.14613193354</v>
       </c>
       <c r="D6" t="n">
-        <v>78841.2895842102</v>
+        <v>79674.14613193359</v>
       </c>
       <c r="E6" t="n">
-        <v>112468.8895842102</v>
+        <v>113301.7461319336</v>
       </c>
       <c r="F6" t="n">
-        <v>112468.8895842102</v>
+        <v>113301.7461319336</v>
       </c>
       <c r="G6" t="n">
-        <v>107190.7401600547</v>
+        <v>108068.5690640741</v>
       </c>
       <c r="H6" t="n">
-        <v>116919.7831342218</v>
+        <v>117797.6120382411</v>
       </c>
       <c r="I6" t="n">
-        <v>116919.7831342218</v>
+        <v>117797.6120382411</v>
       </c>
       <c r="J6" t="n">
-        <v>63147.27224401233</v>
+        <v>64025.10114803168</v>
       </c>
       <c r="K6" t="n">
-        <v>116919.7831342218</v>
+        <v>117797.6120382411</v>
       </c>
       <c r="L6" t="n">
-        <v>116919.7831342218</v>
+        <v>117797.6120382412</v>
       </c>
       <c r="M6" t="n">
-        <v>116919.7831342218</v>
+        <v>117797.6120382411</v>
       </c>
       <c r="N6" t="n">
-        <v>116919.7831342218</v>
+        <v>117797.6120382412</v>
       </c>
       <c r="O6" t="n">
-        <v>112468.8895842103</v>
+        <v>113301.7461319336</v>
       </c>
       <c r="P6" t="n">
-        <v>112468.8895842102</v>
+        <v>113301.7461319336</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34708,13 +34708,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
-        <v>130.2714255894491</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P6" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35182,13 +35182,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>70.5902951096252</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35495,16 +35495,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O12" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35656,13 +35656,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35738,13 +35738,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>70.5902951096252</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -36203,16 +36203,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36917,16 +36917,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9091475161415</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,10 +37160,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,10 +37631,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,10 +37792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>773022.4371738576</v>
+        <v>773806.5831118864</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5059031.154430572</v>
+        <v>5059031.154430573</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,46 +670,46 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.211010870930398</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -738,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>33.57505181659868</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>12.45968987784987</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,56 +901,56 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>171.0294181666926</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="C6" t="n">
-        <v>120.4324765878912</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,28 +1135,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.32160706581265</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1373,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1415,25 +1417,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>54.97933811727043</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>13.74034240511227</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1649,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>119.3034809802377</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1850,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1886,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1923,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>51.87748497259537</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>232.8330857361503</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>84.14750936819277</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,7 +2213,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,10 +2225,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>241.0142888776591</v>
@@ -2336,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>208.2638363878124</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>103.7035670991123</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,19 +2447,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>31.42349649226721</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2561,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>68.29221919223491</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>118.3968738826468</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2922,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>123.8814522403791</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2959,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,64 +3040,64 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T32" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U32" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3108,22 +3110,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>70.52904586619742</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>118.3376725010039</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
@@ -3278,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3348,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3357,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>27.11793487704408</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,16 +3395,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>83.3927757125424</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,52 +3517,52 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>92.95466700954542</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>89.24443026103606</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>106.6874096712025</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3752,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>81.44781579947814</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3940,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,64 +3982,64 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4101,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>81.13095251577728</v>
+        <v>80.86228322859418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C2" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D2" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E2" t="n">
-        <v>431.628992076841</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>199.2900309704538</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="C3" t="n">
-        <v>165.3758372163137</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>29.03990215807806</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="W3" t="n">
-        <v>406.8838132313431</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="X3" t="n">
-        <v>199.2900309704538</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="Y3" t="n">
-        <v>199.2900309704538</v>
+        <v>518.7152536647734</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4568,49 +4570,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V5" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
         <v>16.44142755506243</v>
@@ -4650,16 +4652,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>137.7041268545529</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
         <v>672.8764276104736</v>
@@ -4823,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U8" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V8" t="n">
-        <v>431.628992076841</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W8" t="n">
-        <v>224.0352098159517</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X8" t="n">
-        <v>224.0352098159517</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>190.8944568361894</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>65.2511316619439</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4890,16 +4892,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4908,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W9" t="n">
-        <v>774.2973583780361</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X9" t="n">
-        <v>566.7035761171468</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y9" t="n">
-        <v>359.1097938562575</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="I10" t="n">
         <v>133.2380658808762</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5045,13 +5047,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5063,28 +5065,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U11" t="n">
-        <v>639.2227743377304</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.19556020784815</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E12" t="n">
-        <v>17.19556020784815</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F12" t="n">
-        <v>17.19556020784815</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G12" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5121,49 +5123,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>435.9652341458732</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V12" t="n">
-        <v>808.192244010584</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W12" t="n">
-        <v>600.5984617496947</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X12" t="n">
-        <v>393.0046794888054</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.4108972279162</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5279,13 +5281,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5297,22 +5299,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>604.3859801240053</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>396.792197863116</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>189.1984156022267</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W14" t="n">
         <v>16.44142755506243</v>
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5358,19 +5360,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N15" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>224.7893424687375</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>668.2068788942177</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
         <v>668.2068788942177</v>
@@ -5595,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>911.6556555383177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>911.6556555383177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>911.6556555383177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>911.6556555383177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>668.2068788942177</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,13 +5697,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104.2786273205085</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>104.2786273205085</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>104.2786273205085</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>104.2786273205085</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>104.2786273205085</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>104.2786273205085</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>104.2786273205085</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>555.4877027295624</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W21" t="n">
-        <v>312.0389260854624</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X21" t="n">
-        <v>312.0389260854624</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>104.2786273205085</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>501.9060370580465</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C24" t="n">
-        <v>327.4530077769195</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>124.032220988104</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>932.3162499628916</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>730.1296553216575</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>501.9060370580465</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>501.9060370580465</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>501.9060370580465</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X24" t="n">
-        <v>501.9060370580465</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y24" t="n">
-        <v>501.9060370580465</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>89.01731535111452</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>65.60123993063803</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>526.7184526376595</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>401.5856725968725</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>193.7341723913397</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="31">
@@ -6607,7 +6609,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
         <v>829.5248650203655</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5698337361135</v>
+        <v>414.6641751762832</v>
       </c>
       <c r="C33" t="n">
-        <v>166.5698337361135</v>
+        <v>240.2111458951562</v>
       </c>
       <c r="D33" t="n">
-        <v>166.5698337361135</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="E33" t="n">
-        <v>166.5698337361135</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>91.27673623390493</v>
       </c>
       <c r="H33" t="n">
         <v>20.03527576299844</v>
@@ -6783,46 +6785,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>569.9372789879242</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>569.9372789879242</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>334.7851707561815</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>334.7851707561815</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>334.7851707561815</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y33" t="n">
-        <v>334.7851707561815</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>342.668582052591</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>251.0958939094183</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>778.6524990811558</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>778.6524990811558</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>550.428880817545</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V36" t="n">
-        <v>550.428880817545</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="W36" t="n">
-        <v>550.428880817545</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="X36" t="n">
-        <v>550.428880817545</v>
+        <v>425.5489231905453</v>
       </c>
       <c r="Y36" t="n">
-        <v>342.668582052591</v>
+        <v>425.5489231905453</v>
       </c>
     </row>
     <row r="37">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.6341941966871</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="C39" t="n">
-        <v>110.1811649155601</v>
+        <v>581.7526260239764</v>
       </c>
       <c r="D39" t="n">
-        <v>110.1811649155601</v>
+        <v>432.8182163627251</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>273.5807613572696</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>127.0462033841546</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X39" t="n">
-        <v>452.8495312167552</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y39" t="n">
-        <v>452.8495312167552</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="40">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7418,10 +7420,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
         <v>822.0713777531216</v>
@@ -7442,19 +7444,19 @@
         <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>324.6132922217692</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>324.6132922217692</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7491,16 +7493,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>626.8294255367553</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
         <v>822.0713777531216</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R43" t="n">
-        <v>687.5390872628509</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="S43" t="n">
-        <v>687.5390872628509</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="T43" t="n">
-        <v>687.5390872628509</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C44" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
         <v>16.44142755506243</v>
@@ -7731,16 +7733,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U45" t="n">
-        <v>566.7035761171468</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V45" t="n">
-        <v>566.7035761171468</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W45" t="n">
-        <v>566.7035761171468</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X45" t="n">
-        <v>566.7035761171468</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.1097938562575</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7988,13 +7990,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>150.567170896597</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8228,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
@@ -8307,10 +8309,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>164.1205091169155</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,7 +8464,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8538,19 +8540,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>212.7243290316435</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8702,7 +8704,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>233.7538122443171</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9491,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133072</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9959,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>185.3423563661624</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9969,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10431,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,7 +11153,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11379,7 +11381,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,10 +11390,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22547,7 +22549,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2648786994755</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22626,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1334471717171</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>145.1853905775511</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22787,7 +22789,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22835,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22844,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>178.2115505507205</v>
+        <v>168.2208513361756</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22860,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>46.48311134337176</v>
       </c>
       <c r="C6" t="n">
-        <v>52.27602240042458</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>51.39576075832579</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23075,13 +23077,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23100,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23118,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>41.07502578560243</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23148,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>204.3987039795849</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23261,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23303,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>198.7016825117764</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>92.46572744736832</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>219.060244744313</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23467,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801998</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23537,25 +23539,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U14" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>156.7228403034423</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>106.6379011007371</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23738,16 +23740,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23774,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23811,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23859,7 +23861,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>119.8056861312425</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23871,7 +23873,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23944,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>174.0429600055611</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,13 +24025,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24066,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>5.249123483222306</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24099,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,10 +24113,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24133,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>140.9160811946027</v>
@@ -24224,10 +24226,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>2.212053182593479</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24285,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>41.36564529427154</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24333,19 +24335,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>140.2596746115706</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24449,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>43.94322504426155</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7466147015374</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24728,25 +24730,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,10 +24770,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>26.67233851073708</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24810,7 +24812,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>127.8135309205405</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G31" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,22 +24998,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>41.70639837029904</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>81.82705619381767</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25236,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25245,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>110.2255822861666</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>88.29039539129542</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25391,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25436,19 +25438,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>116.0654025766999</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>68.40065019436489</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>30.65610749200818</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25640,10 +25642,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25682,13 +25684,13 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>85.0853678503892</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25828,10 +25830,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>144.8104295651975</v>
+        <v>145.0790988523806</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>426200.7037895466</v>
+        <v>426200.7037895467</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>426200.7037895466</v>
+        <v>426200.7037895467</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426200.7037895466</v>
+        <v>426200.7037895467</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448931.5405599569</v>
+        <v>448931.5405599567</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448931.5405599568</v>
+        <v>448931.5405599569</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448931.5405599569</v>
+        <v>448931.5405599568</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426200.7037895467</v>
+        <v>426200.7037895466</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165645.5239266782</v>
+        <v>165645.5239266781</v>
       </c>
       <c r="C2" t="n">
         <v>165645.5239266781</v>
@@ -26323,13 +26325,13 @@
         <v>165645.5239266781</v>
       </c>
       <c r="F2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="G2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="H2" t="n">
-        <v>174468.706157899</v>
+        <v>174468.7061578989</v>
       </c>
       <c r="I2" t="n">
         <v>174468.7061578989</v>
@@ -26338,22 +26340,22 @@
         <v>174468.7061578989</v>
       </c>
       <c r="K2" t="n">
+        <v>174468.706157899</v>
+      </c>
+      <c r="L2" t="n">
         <v>174468.7061578989</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>174468.706157899</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>174468.7061578989</v>
-      </c>
-      <c r="N2" t="n">
-        <v>174468.706157899</v>
       </c>
       <c r="O2" t="n">
         <v>165645.5239266781</v>
       </c>
       <c r="P2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
     </row>
     <row r="3">
@@ -26442,7 +26444,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="K4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
         <v>42017.42535589615</v>
@@ -26451,7 +26453,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42017.42535589615</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="O4" t="n">
         <v>39848.29285289707</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10800.38955024382</v>
+        <v>10800.38955024379</v>
       </c>
       <c r="C6" t="n">
-        <v>79674.14613193354</v>
+        <v>79674.14613193364</v>
       </c>
       <c r="D6" t="n">
-        <v>79674.14613193359</v>
+        <v>79674.14613193361</v>
       </c>
       <c r="E6" t="n">
         <v>113301.7461319336</v>
       </c>
       <c r="F6" t="n">
-        <v>113301.7461319336</v>
+        <v>113301.7461319337</v>
       </c>
       <c r="G6" t="n">
-        <v>108068.5690640741</v>
+        <v>108068.569064074</v>
       </c>
       <c r="H6" t="n">
         <v>117797.6120382411</v>
@@ -26546,22 +26548,22 @@
         <v>64025.10114803168</v>
       </c>
       <c r="K6" t="n">
+        <v>117797.6120382412</v>
+      </c>
+      <c r="L6" t="n">
         <v>117797.6120382411</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>117797.6120382412</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>117797.6120382411</v>
-      </c>
-      <c r="N6" t="n">
-        <v>117797.6120382412</v>
       </c>
       <c r="O6" t="n">
         <v>113301.7461319336</v>
       </c>
       <c r="P6" t="n">
-        <v>113301.7461319336</v>
+        <v>113301.7461319337</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34708,13 +34710,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>12.72573192223801</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34948,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
@@ -35027,10 +35029,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>21.52426467247106</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35182,7 +35184,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35258,19 +35260,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35415,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35422,7 +35424,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>91.61977832229879</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N14" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35963,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,7 +36211,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>46.78797658628819</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,7 +37873,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,10 +38110,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>773806.5831118864</v>
+        <v>669574.084848443</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
         <v>205.5178444382804</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.45968987784987</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>19.84004947482878</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120.0500723064956</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.32160706581265</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1454,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>54.97933811727043</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>43.94493877725959</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1846,28 +1846,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>29.25696676314361</v>
       </c>
     </row>
     <row r="19">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>232.8330857361503</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>89.66547645067541</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2247,55 +2247,55 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,7 +2408,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>103.7035670991123</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>97.34871926419861</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>68.29221919223491</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>81.94696239689884</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>99.22041616487701</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>118.3968738826468</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2961,43 +2961,43 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3028,11 +3028,11 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>70.52904586619742</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3195,55 +3195,55 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100.3796369526212</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>27.11793487704408</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,52 +3435,52 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>106.6874096712025</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>47.29627918133474</v>
+        <v>86.48406825923605</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.02492433367362</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>80.86228322859418</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4342,40 +4342,40 @@
         <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>453.0030327087026</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>518.7152536647734</v>
+        <v>36.481881570041</v>
       </c>
       <c r="C3" t="n">
-        <v>518.7152536647734</v>
+        <v>36.481881570041</v>
       </c>
       <c r="D3" t="n">
-        <v>518.7152536647734</v>
+        <v>36.481881570041</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1297083336119</v>
+        <v>36.481881570041</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5951503604969</v>
+        <v>36.481881570041</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>36.481881570041</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M3" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N3" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>518.7152536647734</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U3" t="n">
-        <v>518.7152536647734</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V3" t="n">
-        <v>518.7152536647734</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W3" t="n">
-        <v>518.7152536647734</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X3" t="n">
-        <v>518.7152536647734</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y3" t="n">
-        <v>518.7152536647734</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4506,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4588,25 +4588,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
         <v>431.628992076841</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="G6" t="n">
         <v>16.44142755506243</v>
@@ -4649,19 +4649,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4670,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X6" t="n">
-        <v>137.7041268545529</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y6" t="n">
-        <v>137.7041268545529</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="7">
@@ -4746,16 +4746,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
         <v>16.44142755506243</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>811.9797623848946</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="C8" t="n">
-        <v>811.9797623848946</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="D8" t="n">
-        <v>811.9797623848946</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E8" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>604.3859801240053</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="Y8" t="n">
-        <v>811.9797623848946</v>
+        <v>670.6884303378189</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.2511316619439</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>65.2511316619439</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>65.2511316619439</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
-        <v>65.2511316619439</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
-        <v>65.2511316619439</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G9" t="n">
-        <v>65.2511316619439</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H9" t="n">
-        <v>65.2511316619439</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
         <v>16.44142755506243</v>
@@ -4892,10 +4892,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>415.1460457653264</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>618.608711759224</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
         <v>822.0713777531216</v>
@@ -4910,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W9" t="n">
-        <v>441.0602509429012</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X9" t="n">
-        <v>233.4664686820119</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y9" t="n">
-        <v>233.4664686820119</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E11" t="n">
         <v>16.44142755506243</v>
@@ -5044,10 +5044,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5074,19 +5074,19 @@
         <v>604.3859801240053</v>
       </c>
       <c r="U11" t="n">
+        <v>604.3859801240053</v>
+      </c>
+      <c r="V11" t="n">
+        <v>604.3859801240053</v>
+      </c>
+      <c r="W11" t="n">
         <v>396.792197863116</v>
       </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
         <v>396.792197863116</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>189.1984156022267</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5126,16 +5126,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5144,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V12" t="n">
-        <v>720.9018483060073</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W12" t="n">
-        <v>720.9018483060073</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>720.9018483060073</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5217,25 +5217,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
         <v>16.44142755506243</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5281,16 +5281,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
         <v>732.4113224610707</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U14" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V14" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>151.8840163984286</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>151.8840163984286</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H15" t="n">
         <v>107.4951893506917</v>
@@ -5360,49 +5360,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>518.7152536647734</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>311.1214714038841</v>
       </c>
     </row>
     <row r="16">
@@ -5454,13 +5454,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
         <v>16.44142755506243</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>710.516763498309</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5551,16 +5551,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>491.7024528141798</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,46 +5600,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>234.810827406191</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>659.9177898342477</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H19" t="n">
         <v>19.28114311021272</v>
@@ -5697,28 +5697,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5785,19 +5785,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>109.8523314442283</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>283.2696759935595</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C24" t="n">
-        <v>283.2696759935595</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D24" t="n">
-        <v>283.2696759935595</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E24" t="n">
-        <v>124.032220988104</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,10 +6074,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>865.7251158498295</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>630.5730076180869</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2696759935595</v>
+        <v>387.1242309739868</v>
       </c>
       <c r="X24" t="n">
-        <v>283.2696759935595</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y24" t="n">
-        <v>283.2696759935595</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="25">
@@ -6177,16 +6177,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6268,10 +6268,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>89.01731535111452</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
         <v>20.03527576299844</v>
@@ -6311,7 +6311,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
         <v>417.4543050195419</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>284.1276524520142</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W29" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X29" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.6788758079141</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6545,10 +6545,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
         <v>486.8488635328713</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292607</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y30" t="n">
-        <v>277.6047704292607</v>
+        <v>119.5037857009976</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>414.6641751762832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>240.2111458951562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>91.27673623390493</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>91.27673623390493</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>91.27673623390493</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>91.27673623390493</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
         <v>20.03527576299844</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>790.6398109613051</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>790.6398109613051</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>582.8795121963512</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6891,19 +6891,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D35" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>425.5489231905453</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>251.0958939094183</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>251.0958939094183</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>251.0958939094183</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>251.0958939094183</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7022,16 +7022,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>425.5489231905453</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W36" t="n">
-        <v>425.5489231905453</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X36" t="n">
-        <v>425.5489231905453</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>425.5489231905453</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>581.7526260239764</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>432.8182163627251</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>273.5807613572696</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>127.0462033841546</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,16 +7262,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W39" t="n">
-        <v>964.0571555106362</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X39" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>756.2056553051034</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7359,10 +7359,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="I41" t="n">
         <v>16.44142755506243</v>
@@ -7420,7 +7420,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
         <v>672.8764276104736</v>
@@ -7435,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T41" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U41" t="n">
-        <v>224.0352098159517</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>278.2521015424885</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>103.7990722613615</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7496,16 +7496,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>446.4674385625565</v>
       </c>
     </row>
     <row r="43">
@@ -7590,16 +7590,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I44" t="n">
         <v>16.44142755506243</v>
@@ -7654,10 +7654,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7675,25 +7675,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W44" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X44" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y44" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7730,43 +7730,43 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>29.03990215807806</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
         <v>224.0352098159517</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7990,13 +7990,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8072,13 +8072,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8467,10 +8467,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8540,13 +8540,13 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>212.7243290316435</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8774,19 +8774,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8929,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,10 +9248,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>356.2611315939937</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,10 +9260,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9959,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10448,7 +10448,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10670,7 +10670,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>369.8307175917693</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10682,7 +10682,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11144,19 +11144,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11302,13 +11302,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>151.2801117021122</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11393,10 +11393,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C2" t="n">
         <v>159.7550473327271</v>
@@ -22567,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>201.2648786994755</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22634,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>145.1853905775511</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>92.39539476166769</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22691,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T5" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>168.2208513361756</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.48311134337176</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>90.0472379818759</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22986,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>350.7793706321741</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>51.39576075832579</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23120,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>41.07502578560243</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23159,16 +23159,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055691</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23314,7 +23314,7 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>198.7016825117764</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23342,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>92.46572744736832</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23393,16 +23393,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>97.48006257801998</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>244.2733193484424</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23548,16 +23548,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>42.075732182894</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,22 +23576,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>93.39857838595104</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23734,28 +23734,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>137.40686139585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23879,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>176.4257290141607</v>
       </c>
     </row>
     <row r="19">
@@ -23907,7 +23907,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>174.0429600055611</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24025,10 +24025,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>143.656081349691</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>116.1075087528021</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24296,7 +24296,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>41.36564529427154</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>128.5926628167762</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>164.9367954821779</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,7 +24454,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24539,7 +24539,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>43.94322504426155</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24575,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>150.8536247525264</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>360.7466147015374</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24730,19 +24730,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>67.31276748499033</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24770,10 +24770,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>26.67233851073708</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24809,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24973,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25013,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>41.70639837029904</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25131,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>281.5507331196406</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>110.2255822861666</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>142.630753465213</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25408,13 +25408,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>239.095165163146</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25472,19 +25472,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>30.65610749200818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>179.3248901303182</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25675,22 +25675,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>27.99995220500799</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
         <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>100.148786383304</v>
+        <v>60.9609973054027</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25757,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25830,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>173.6629242394455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25885,7 +25885,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25915,25 +25915,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>145.0790988523806</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>426200.7037895467</v>
+        <v>426200.7037895466</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426200.7037895466</v>
+        <v>426200.7037895467</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426200.7037895467</v>
+        <v>426200.7037895468</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448931.5405599568</v>
+        <v>448931.5405599569</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448931.5405599569</v>
+        <v>448931.5405599568</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448931.5405599568</v>
+        <v>448931.5405599567</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426200.7037895466</v>
+        <v>426200.7037895467</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>426200.7037895467</v>
+        <v>426200.7037895466</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165645.5239266781</v>
+        <v>165645.5239266782</v>
       </c>
       <c r="C2" t="n">
         <v>165645.5239266781</v>
@@ -26325,19 +26325,19 @@
         <v>165645.5239266781</v>
       </c>
       <c r="F2" t="n">
-        <v>165645.5239266782</v>
+        <v>165645.5239266781</v>
       </c>
       <c r="G2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="H2" t="n">
         <v>174468.7061578989</v>
       </c>
       <c r="I2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="J2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="K2" t="n">
         <v>174468.706157899</v>
@@ -26349,13 +26349,13 @@
         <v>174468.706157899</v>
       </c>
       <c r="N2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="O2" t="n">
         <v>165645.5239266781</v>
       </c>
       <c r="P2" t="n">
-        <v>165645.5239266782</v>
+        <v>165645.5239266781</v>
       </c>
     </row>
     <row r="3">
@@ -26435,10 +26435,10 @@
         <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
+        <v>42017.42535589614</v>
+      </c>
+      <c r="I4" t="n">
         <v>42017.42535589615</v>
-      </c>
-      <c r="I4" t="n">
-        <v>42017.42535589614</v>
       </c>
       <c r="J4" t="n">
         <v>42017.42535589615</v>
@@ -26453,7 +26453,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
         <v>39848.29285289707</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10800.38955024379</v>
+        <v>-1837.772604616686</v>
       </c>
       <c r="C6" t="n">
-        <v>79674.14613193364</v>
+        <v>67035.98397707311</v>
       </c>
       <c r="D6" t="n">
-        <v>79674.14613193361</v>
+        <v>67035.98397707308</v>
       </c>
       <c r="E6" t="n">
-        <v>113301.7461319336</v>
+        <v>100663.5839770731</v>
       </c>
       <c r="F6" t="n">
-        <v>113301.7461319337</v>
+        <v>100663.5839770731</v>
       </c>
       <c r="G6" t="n">
-        <v>108068.569064074</v>
+        <v>95850.55844403361</v>
       </c>
       <c r="H6" t="n">
-        <v>117797.6120382411</v>
+        <v>105579.6014182006</v>
       </c>
       <c r="I6" t="n">
-        <v>117797.6120382411</v>
+        <v>105579.6014182007</v>
       </c>
       <c r="J6" t="n">
-        <v>64025.10114803168</v>
+        <v>51807.09052799124</v>
       </c>
       <c r="K6" t="n">
-        <v>117797.6120382412</v>
+        <v>105579.6014182007</v>
       </c>
       <c r="L6" t="n">
-        <v>117797.6120382411</v>
+        <v>105579.6014182006</v>
       </c>
       <c r="M6" t="n">
-        <v>117797.6120382412</v>
+        <v>105579.6014182007</v>
       </c>
       <c r="N6" t="n">
-        <v>117797.6120382411</v>
+        <v>105579.6014182007</v>
       </c>
       <c r="O6" t="n">
-        <v>113301.7461319336</v>
+        <v>100663.5839770731</v>
       </c>
       <c r="P6" t="n">
-        <v>113301.7461319337</v>
+        <v>100663.5839770731</v>
       </c>
     </row>
   </sheetData>
@@ -34710,13 +34710,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34792,13 +34792,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N6" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35187,10 +35187,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35649,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>217.7067518141195</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,10 +35980,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36679,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>231.276337811895</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37402,7 +37402,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N41" t="n">
         <v>171.5974510766996</v>
-      </c>
-      <c r="N41" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37864,19 +37864,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38113,10 +38113,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
